--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-19</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
@@ -482,7 +482,7 @@
     <t>患者の生誕地。</t>
   </si>
   <si>
-    <t>The registered place of birth of the patient. A sytem may use the address.text if they don't store the birthPlace address in discrete elements.
+    <t>The registered place of birth of the patient. A system may use the address.text if they don't store the birthPlace address in discrete elements.
 患者の登録された出生地。システムは、birthPlaceアドレスを個別の要素に格納しない場合、address.textを使用してよい。</t>
   </si>
   <si>
@@ -1163,7 +1163,7 @@
   <si>
     <t>Patient may have multiple addresses with different uses or applicable periods.
 患者は、異なる用途または適用可能な期間で複数の住所を持っている可能性がある。
-【JPーCORE】
+【JP-Core仕様】
 FHIRデータ型仕様に従って、以下の案とした。
 ・住所が構造化されている場合、住所パート Address.contry、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する。
 ・住所が構造化されていない場合は、Address.text に記述する。
@@ -1304,7 +1304,7 @@
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 １MBを超えないこと。
-【JPーCORE】
+【JP-Core仕様】
 state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。
 英数字は半角でも全角でもよい。文字列の前後および途中に空白文字を含めないこと。
 繰り返し要素が許されているので、区切りを表現したい場合には、複数要素に分けて格納してもよい。
@@ -1341,7 +1341,7 @@
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 １MBを超えないこと。
-【JPO-CORE】
+【JP-Core仕様】
 郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。
 例：文京区</t>
   </si>
@@ -1372,7 +1372,7 @@
   </si>
   <si>
     <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.
-【JPO-CORE】
+【JP-Core仕様】
 日本の住所では使用しない。</t>
   </si>
   <si>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
@@ -727,7 +727,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processor to be confident that non-case-sensitive processing is safe.
 患者を一意的に識別するID(例えば、患者IDやカルテ番号など)を設定。</t>
   </si>
   <si>
@@ -1163,9 +1163,8 @@
   <si>
     <t>Patient may have multiple addresses with different uses or applicable periods.
 患者は、異なる用途または適用可能な期間で複数の住所を持っている可能性がある。
-【JP-Core仕様】
-FHIRデータ型仕様に従って、以下の案とした。
-・住所が構造化されている場合、住所パート Address.contry、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する。
+【JP-Core仕様】FHIRデータ型仕様に従って、以下の案とした。
+・住所が構造化されている場合、住所パート Address.country、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する。
 ・住所が構造化されていない場合は、Address.text に記述する。
 ・各住所パートとtext は、両方存在してもよい。
 ※診療文書構造化記述規約等では、streetAddressLine (FHIRではlineに対応) に指定するとなっていた。</t>
@@ -1304,8 +1303,7 @@
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 １MBを超えないこと。
-【JP-Core仕様】
-state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。
+【JP-Core仕様】state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。
 英数字は半角でも全角でもよい。文字列の前後および途中に空白文字を含めないこと。
 繰り返し要素が許されているので、区切りを表現したい場合には、複数要素に分けて格納してもよい。
 例：本郷7-3-1
@@ -1341,8 +1339,7 @@
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 １MBを超えないこと。
-【JP-Core仕様】
-郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。
+【JP-Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。
 例：文京区</t>
   </si>
   <si>
@@ -1372,8 +1369,7 @@
   </si>
   <si>
     <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.
-【JP-Core仕様】
-日本の住所では使用しない。</t>
+【JP-Core仕様】日本の住所では使用しない。</t>
   </si>
   <si>
     <t>Madison</t>
@@ -1789,7 +1785,7 @@
 連絡先が主として活動する、または勤務している組織。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 連絡先に関連する組織</t>
   </si>
   <si>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
@@ -1163,7 +1163,7 @@
   <si>
     <t>Patient may have multiple addresses with different uses or applicable periods.
 患者は、異なる用途または適用可能な期間で複数の住所を持っている可能性がある。
-【JP-Core仕様】FHIRデータ型仕様に従って、以下の案とした。
+【JP Core仕様】FHIRデータ型仕様に従って、以下の案とした。
 ・住所が構造化されている場合、住所パート Address.country、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する。
 ・住所が構造化されていない場合は、Address.text に記述する。
 ・各住所パートとtext は、両方存在してもよい。
@@ -1303,7 +1303,7 @@
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 １MBを超えないこと。
-【JP-Core仕様】state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。
+【JP Core仕様】state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。
 英数字は半角でも全角でもよい。文字列の前後および途中に空白文字を含めないこと。
 繰り返し要素が許されているので、区切りを表現したい場合には、複数要素に分けて格納してもよい。
 例：本郷7-3-1
@@ -1339,7 +1339,7 @@
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
 １MBを超えないこと。
-【JP-Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。
+【JP Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。
 例：文京区</t>
   </si>
   <si>
@@ -1369,7 +1369,7 @@
   </si>
   <si>
     <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.
-【JP-Core仕様】日本の住所では使用しない。</t>
+【JP Core仕様】日本の住所では使用しない。</t>
   </si>
   <si>
     <t>Madison</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="576">
   <si>
     <t>Property</t>
   </si>
@@ -285,7 +285,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -548,16 +548,14 @@
   </si>
   <si>
     <t>An identifier for this patient.
-この患者の識別子。</t>
+この患者の識別子。【詳細参照】</t>
   </si>
   <si>
     <t>IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。
 Patient.identifier.system には、
 　urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号
 を使用する。
-医療機関識別OID番号は、患者IDの発行者である医療機関の識別するもので、保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関番号（都道府県2桁、保険点数表コード1桁、保険医療機関番号７桁を連結したもの）または、特定健診・特定保健指導機関の医療機関番号10桁の先頭に１をつけた11桁とする。
-保険点数表コード1桁は医科は１，歯科は３である。
-医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとして、その先頭に１をつけた11桁とする。
+医療機関識別OID番号は、患者IDの発行者である医療機関の識別するもので、保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関コードまたは、特定健診・特定保健指導機関の医療機関コード10桁の先頭に１をつけた11桁とする。医療機関コードの詳細については[こちらのリンク](StructureDefinition-jp-patient.html#医療機関コード)を参照すること。
 例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」
 なお、urn:oid:1.2.392.100495.20.3.51　の部分は、厚生労働省 電子処方箋CDA 記述仕様第1版（平成30年7月）付表2 OID一覧において患者番号として割り当てられたOIDのURL型である。
 地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。</t>
@@ -580,6 +578,10 @@
   </si>
   <si>
     <t>Patient.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -854,8 +856,7 @@
 ・ミドルネームがある場合は、given に指定する（givenは繰り返し可能）
 ・姓名に分割できない場合は、HumanName.text にフルネームを指定する。
 ・各名前パートとtext は、両方存在してもよい。
-・漢字氏名、カナ氏名の区別は、iso21090-EN-representation を使用する。
-・漢字、カナの指定がない場合やローマ字名の場合などはデフォルトスライスが適用される。</t>
+・漢字氏名、カナ氏名の区別は、iso21090-EN-representation を使用する。</t>
   </si>
   <si>
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.
@@ -4030,13 +4031,13 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4087,7 +4088,7 @@
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
@@ -4102,7 +4103,7 @@
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -4119,7 +4120,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4145,10 +4146,10 @@
         <v>132</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>159</v>
@@ -4192,7 +4193,7 @@
         <v>135</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>80</v>
@@ -4201,7 +4202,7 @@
         <v>136</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -4216,7 +4217,7 @@
         <v>138</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>80</v>
@@ -4233,7 +4234,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4259,16 +4260,16 @@
         <v>107</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>80</v>
@@ -4293,13 +4294,13 @@
         <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>80</v>
@@ -4317,7 +4318,7 @@
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
@@ -4332,7 +4333,7 @@
         <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -4349,7 +4350,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4372,19 +4373,19 @@
         <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>80</v>
@@ -4409,13 +4410,13 @@
         <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>80</v>
@@ -4433,7 +4434,7 @@
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4448,7 +4449,7 @@
         <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4457,7 +4458,7 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -4465,7 +4466,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4491,16 +4492,16 @@
         <v>101</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>80</v>
@@ -4513,7 +4514,7 @@
         <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>80</v>
@@ -4549,7 +4550,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4564,7 +4565,7 @@
         <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4573,7 +4574,7 @@
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -4581,7 +4582,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4604,16 +4605,16 @@
         <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4627,7 +4628,7 @@
         <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>80</v>
@@ -4663,7 +4664,7 @@
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4678,7 +4679,7 @@
         <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
@@ -4687,7 +4688,7 @@
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4695,7 +4696,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4718,16 +4719,16 @@
         <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4777,7 +4778,7 @@
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4792,7 +4793,7 @@
         <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
@@ -4801,7 +4802,7 @@
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4809,7 +4810,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4832,16 +4833,16 @@
         <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4891,7 +4892,7 @@
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4906,7 +4907,7 @@
         <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
@@ -4915,7 +4916,7 @@
         <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
@@ -4923,7 +4924,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4946,70 +4947,70 @@
         <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5024,13 +5025,13 @@
         <v>99</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -5041,7 +5042,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5064,19 +5065,19 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>80</v>
@@ -5125,7 +5126,7 @@
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -5140,7 +5141,7 @@
         <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -5149,7 +5150,7 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -5157,7 +5158,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5180,19 +5181,19 @@
         <v>88</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>80</v>
@@ -5241,7 +5242,7 @@
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5256,16 +5257,16 @@
         <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -5273,7 +5274,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5296,13 +5297,13 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -5353,7 +5354,7 @@
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5368,7 +5369,7 @@
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
@@ -5385,7 +5386,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5411,10 +5412,10 @@
         <v>132</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>159</v>
@@ -5458,7 +5459,7 @@
         <v>135</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>80</v>
@@ -5467,7 +5468,7 @@
         <v>136</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5482,7 +5483,7 @@
         <v>138</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -5499,7 +5500,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5525,13 +5526,13 @@
         <v>107</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5557,13 +5558,13 @@
         <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>80</v>
@@ -5581,7 +5582,7 @@
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5590,13 +5591,13 @@
         <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
@@ -5605,7 +5606,7 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5613,7 +5614,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5636,19 +5637,19 @@
         <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>80</v>
@@ -5697,7 +5698,7 @@
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5712,7 +5713,7 @@
         <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
@@ -5721,7 +5722,7 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5729,7 +5730,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5755,16 +5756,16 @@
         <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>80</v>
@@ -5789,13 +5790,13 @@
         <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>80</v>
@@ -5813,7 +5814,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5828,7 +5829,7 @@
         <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5837,7 +5838,7 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5845,7 +5846,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5868,16 +5869,16 @@
         <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5927,7 +5928,7 @@
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5942,7 +5943,7 @@
         <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
@@ -5951,7 +5952,7 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5959,7 +5960,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5982,16 +5983,16 @@
         <v>88</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6041,7 +6042,7 @@
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -6056,7 +6057,7 @@
         <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -6073,7 +6074,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6099,16 +6100,16 @@
         <v>107</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>80</v>
@@ -6133,13 +6134,13 @@
         <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>80</v>
@@ -6157,7 +6158,7 @@
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6172,16 +6173,16 @@
         <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6189,7 +6190,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6212,19 +6213,19 @@
         <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>80</v>
@@ -6273,7 +6274,7 @@
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6288,24 +6289,24 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6328,19 +6329,19 @@
         <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>80</v>
@@ -6389,7 +6390,7 @@
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6404,16 +6405,16 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6421,7 +6422,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6444,19 +6445,19 @@
         <v>88</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>80</v>
@@ -6505,7 +6506,7 @@
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6520,16 +6521,16 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6537,7 +6538,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6560,13 +6561,13 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6617,7 +6618,7 @@
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6632,7 +6633,7 @@
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -6649,7 +6650,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6675,10 +6676,10 @@
         <v>132</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>159</v>
@@ -6722,7 +6723,7 @@
         <v>135</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>80</v>
@@ -6731,7 +6732,7 @@
         <v>136</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6746,7 +6747,7 @@
         <v>138</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -6763,7 +6764,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6789,16 +6790,16 @@
         <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>80</v>
@@ -6811,7 +6812,7 @@
         <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>80</v>
@@ -6823,13 +6824,13 @@
         <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>80</v>
@@ -6847,7 +6848,7 @@
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6862,7 +6863,7 @@
         <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
@@ -6871,7 +6872,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6879,7 +6880,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6905,13 +6906,13 @@
         <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6925,7 +6926,7 @@
         <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>80</v>
@@ -6937,13 +6938,13 @@
         <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>80</v>
@@ -6961,7 +6962,7 @@
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6976,7 +6977,7 @@
         <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6985,7 +6986,7 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6993,7 +6994,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7016,19 +7017,19 @@
         <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>80</v>
@@ -7041,7 +7042,7 @@
         <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>80</v>
@@ -7077,7 +7078,7 @@
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -7092,7 +7093,7 @@
         <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -7101,7 +7102,7 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7109,7 +7110,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7132,16 +7133,16 @@
         <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7155,7 +7156,7 @@
         <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>80</v>
@@ -7191,7 +7192,7 @@
         <v>80</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7206,7 +7207,7 @@
         <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -7215,7 +7216,7 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7223,11 +7224,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7246,16 +7247,16 @@
         <v>88</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7269,7 +7270,7 @@
         <v>80</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>80</v>
@@ -7305,7 +7306,7 @@
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7320,7 +7321,7 @@
         <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
@@ -7329,7 +7330,7 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7337,11 +7338,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7360,16 +7361,16 @@
         <v>88</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7383,7 +7384,7 @@
         <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>80</v>
@@ -7419,7 +7420,7 @@
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7434,7 +7435,7 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7443,7 +7444,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7451,11 +7452,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7474,16 +7475,16 @@
         <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7533,7 +7534,7 @@
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7548,7 +7549,7 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7557,7 +7558,7 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7565,11 +7566,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7588,16 +7589,16 @@
         <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7611,7 +7612,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7647,7 +7648,7 @@
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7662,7 +7663,7 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7671,7 +7672,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7679,7 +7680,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7702,16 +7703,16 @@
         <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7761,7 +7762,7 @@
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7776,7 +7777,7 @@
         <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -7785,7 +7786,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7793,7 +7794,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7816,19 +7817,19 @@
         <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>80</v>
@@ -7841,7 +7842,7 @@
         <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>80</v>
@@ -7877,7 +7878,7 @@
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7892,7 +7893,7 @@
         <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7901,7 +7902,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7909,7 +7910,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7932,19 +7933,19 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>80</v>
@@ -7969,13 +7970,13 @@
         <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>80</v>
@@ -7993,7 +7994,7 @@
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8008,16 +8009,16 @@
         <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -8025,7 +8026,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8048,19 +8049,19 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>80</v>
@@ -8109,7 +8110,7 @@
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8124,16 +8125,16 @@
         <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -8141,7 +8142,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8164,19 +8165,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>80</v>
@@ -8225,7 +8226,7 @@
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8240,16 +8241,16 @@
         <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8257,7 +8258,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8280,19 +8281,19 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>80</v>
@@ -8341,7 +8342,7 @@
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8353,13 +8354,13 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -8373,7 +8374,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8396,13 +8397,13 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8453,7 +8454,7 @@
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8468,7 +8469,7 @@
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
@@ -8485,7 +8486,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8511,10 +8512,10 @@
         <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>159</v>
@@ -8567,7 +8568,7 @@
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8582,7 +8583,7 @@
         <v>138</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
@@ -8599,11 +8600,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8625,10 +8626,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>159</v>
@@ -8683,7 +8684,7 @@
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8715,7 +8716,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8738,19 +8739,19 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>80</v>
@@ -8775,13 +8776,13 @@
         <v>80</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>80</v>
@@ -8799,7 +8800,7 @@
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8814,16 +8815,16 @@
         <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8831,7 +8832,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8854,17 +8855,17 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>80</v>
@@ -8913,7 +8914,7 @@
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8928,16 +8929,16 @@
         <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8945,7 +8946,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8968,19 +8969,19 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>80</v>
@@ -9029,7 +9030,7 @@
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9044,16 +9045,16 @@
         <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9061,7 +9062,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9084,17 +9085,17 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>80</v>
@@ -9143,7 +9144,7 @@
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9158,16 +9159,16 @@
         <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9175,7 +9176,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9201,14 +9202,14 @@
         <v>107</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>80</v>
@@ -9233,13 +9234,13 @@
         <v>80</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>80</v>
@@ -9257,7 +9258,7 @@
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9272,16 +9273,16 @@
         <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9289,7 +9290,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9312,19 +9313,19 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>80</v>
@@ -9373,7 +9374,7 @@
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9382,22 +9383,22 @@
         <v>87</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9405,7 +9406,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9428,13 +9429,13 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9485,7 +9486,7 @@
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9500,10 +9501,10 @@
         <v>99</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -9517,7 +9518,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9540,19 +9541,19 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>80</v>
@@ -9601,7 +9602,7 @@
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9616,10 +9617,10 @@
         <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -9633,7 +9634,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9656,13 +9657,13 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9713,7 +9714,7 @@
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9728,7 +9729,7 @@
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
@@ -9745,7 +9746,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9771,10 +9772,10 @@
         <v>132</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>159</v>
@@ -9827,7 +9828,7 @@
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9842,7 +9843,7 @@
         <v>138</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
@@ -9859,11 +9860,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9885,10 +9886,10 @@
         <v>132</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>159</v>
@@ -9943,7 +9944,7 @@
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9975,7 +9976,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9998,19 +9999,19 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>80</v>
@@ -10059,7 +10060,7 @@
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>87</v>
@@ -10074,16 +10075,16 @@
         <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -10091,7 +10092,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10114,19 +10115,19 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>80</v>
@@ -10175,7 +10176,7 @@
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10190,16 +10191,16 @@
         <v>99</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10207,11 +10208,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10230,16 +10231,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10289,7 +10290,7 @@
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10304,16 +10305,16 @@
         <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10321,7 +10322,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10344,19 +10345,19 @@
         <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>80</v>
@@ -10405,7 +10406,7 @@
         <v>80</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10420,10 +10421,10 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
@@ -10437,7 +10438,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10460,19 +10461,19 @@
         <v>88</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>80</v>
@@ -10521,7 +10522,7 @@
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10536,10 +10537,10 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>80</v>
@@ -10553,7 +10554,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10576,13 +10577,13 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10633,7 +10634,7 @@
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10648,7 +10649,7 @@
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
@@ -10665,7 +10666,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10691,10 +10692,10 @@
         <v>132</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>159</v>
@@ -10747,7 +10748,7 @@
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10762,7 +10763,7 @@
         <v>138</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
@@ -10779,11 +10780,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10805,10 +10806,10 @@
         <v>132</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>159</v>
@@ -10863,7 +10864,7 @@
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10895,7 +10896,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10918,16 +10919,16 @@
         <v>88</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10977,7 +10978,7 @@
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>87</v>
@@ -10995,13 +10996,13 @@
         <v>168</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -11009,7 +11010,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11035,13 +11036,13 @@
         <v>107</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11067,13 +11068,13 @@
         <v>80</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>80</v>
@@ -11091,7 +11092,7 @@
         <v>80</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>87</v>
@@ -11106,10 +11107,10 @@
         <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
@@ -544,18 +544,18 @@
 </t>
   </si>
   <si>
-    <t>An identifier for this patient</t>
+    <t>An identifier for this patient 【詳細参照】</t>
   </si>
   <si>
     <t>An identifier for this patient.
-この患者の識別子。【詳細参照】</t>
+この患者の識別子。</t>
   </si>
   <si>
     <t>IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。
 Patient.identifier.system には、
 　urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号
 を使用する。
-医療機関識別OID番号は、患者IDの発行者である医療機関の識別するもので、保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関コードまたは、特定健診・特定保健指導機関の医療機関コード10桁の先頭に１をつけた11桁とする。医療機関コードの詳細については[こちらのリンク](StructureDefinition-jp-patient.html#医療機関コード)を参照すること。
+医療機関識別OID番号は、患者IDの発行者である医療機関の識別するもので、保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関コードまたは、特定健診・特定保健指導機関の医療機関コード10桁の先頭に１をつけた11桁とする。医療機関コードの詳細については[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード)を参照すること。
 例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」
 なお、urn:oid:1.2.392.100495.20.3.51　の部分は、厚生労働省 電子処方箋CDA 記述仕様第1版（平成30年7月）付表2 OID一覧において患者番号として割り当てられたOIDのURL型である。
 地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -454,17 +454,17 @@
 </t>
   </si>
   <si>
-    <t>患者の宗教</t>
+    <t>患者の宗教 【詳細参照】</t>
   </si>
   <si>
     <t>The patient's professed religious affiliations.
 患者の公言された宗教的所属。</t>
   </si>
   <si>
-    <t>患者の宗教をValueSet(v3.ReligiousAffiliation)より選択する。輸血や食事で考慮が必要な場合がある。
-1013 キリスト教
-1020 ヒンドゥー教
-1023 イスラム教
+    <t>患者の宗教をValueSet(v3.ReligiousAffiliation)より選択する。輸血や食事で考慮が必要な場合がある。 
+- 1013 キリスト教
+- 1020 ヒンドゥー教
+- 1023 イスラム教
 など</t>
   </si>
   <si>
@@ -479,7 +479,7 @@
 </t>
   </si>
   <si>
-    <t>患者の生誕地。</t>
+    <t>患者の生誕地 【詳細参照】</t>
   </si>
   <si>
     <t>The registered place of birth of the patient. A system may use the address.text if they don't store the birthPlace address in discrete elements.
@@ -496,21 +496,21 @@
 </t>
   </si>
   <si>
-    <t>患者の人種。</t>
+    <t>患者の人種 【詳細参照】</t>
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.
 オプションの拡張要素-すべてのリソースで使用できる。</t>
   </si>
   <si>
-    <t>患者の人種をValueSet(Race)より選択する。
-2034-7 中国人
-2039-6 日本人
-2040-4 韓国人
-2108-9 ヨーロッパ人
-2110-5 英国人
-2111-3 フランス人
-2112-1 ドイツ人
+    <t>患者の人種をValueSet(Race)より選択する。  
+- 2034-7 中国人
+- 2039-6 日本人
+- 2040-4 韓国人
+- 2108-9 ヨーロッパ人
+- 2110-5 英国人
+- 2111-3 フランス人
+- 2112-1 ドイツ人
 など</t>
   </si>
   <si>
@@ -551,14 +551,11 @@
 この患者の識別子。</t>
   </si>
   <si>
-    <t>IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。
-Patient.identifier.system には、
-　urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号
-を使用する。
-医療機関識別OID番号は、患者IDの発行者である医療機関の識別するもので、保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関コードまたは、特定健診・特定保健指導機関の医療機関コード10桁の先頭に１をつけた11桁とする。医療機関コードの詳細については[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード)を参照すること。
-例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」
-なお、urn:oid:1.2.392.100495.20.3.51　の部分は、厚生労働省 電子処方箋CDA 記述仕様第1版（平成30年7月）付表2 OID一覧において患者番号として割り当てられたOIDのURL型である。
-地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）を system に使用することができる。</t>
+    <t>IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。  
+Patient.identifier.system には、urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号を使用する。  
+医療機関識別OID番号は患者IDの発行者である医療機関の識別するものである。保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関コードまたは、特定健診・特定保健指導機関の医療機関コード10桁の先頭に１をつけた11桁とする。医療機関コードの詳細については[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード)を参照すること。  
+例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」  
+なお、urn:oid:1.2.392.100495.20.3.51の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において医療機関等の患者IDとして割り当てられたOIDのURL型である。地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）をsystemに使用することができる。</t>
   </si>
   <si>
     <t>Patients are almost always assigned specific numerical identifiers.
@@ -614,19 +611,19 @@
     <t>Patient.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
+    <t>usual | official | temp | secondary | old (If known) 【詳細参照】</t>
   </si>
   <si>
     <t>The purpose of this identifier.</t>
   </si>
   <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.
-IDの種別をValueSet(IdentifierUse)より選択する。
-usual　　一般
-official　公式（マイナンバーなど、最も信頼できると見なされる場合に使用）
-temp　　一時的
-secondary　二次利用
-old　過去の識別子</t>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.  
+IDの種別をValueSet(IdentifierUse)より選択する。  
+- usual : 一般
+- official : 公式（マイナンバーなど、最も信頼できると見なされる場合に使用）
+- temp : 一時的
+- secondary : 二次利用
+- old : 過去の識別子</t>
   </si>
   <si>
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
@@ -654,18 +651,18 @@
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
+    <t>Description of identifier 【詳細参照】</t>
   </si>
   <si>
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.
-IDの種別をValueSet(Identifier Type Codes)より選択する。
-DL 運転免許証番号
-PPN パスポート番号
-BRN 血統登録番号
-MR カルテ番号
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.  
+IDの種別をValueSet(Identifier Type Codes)より選択する。
+- DL : 運転免許証番号
+- PPN : パスポート番号
+- BRN : 血統登録番号
+- MR : カルテ番号
 など</t>
   </si>
   <si>
@@ -690,18 +687,18 @@
     <t>Patient.identifier.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
+    <t>The namespace for the identifier value 【詳細参照】</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>Identifier.system is always case sensitive.
+    <t>Identifier.system is always case sensitive.  
 IDの名前空間を表す。
-医療機関固有の患者ID（カルテNo）を表現する場合、system には、患者IDの発行者である医療機関を識別するuriを指定する。
-医療機関を識別するために使用するOID について、もし適切なOID が存在しない場合で、その医療施設が保険医療機関の場合、特定健診・特定保健指導機関のルールに従い以下のルールで設定してもよい。
-医療施設が固有のOID を持っている場合は、そのOID を指定する。医療施設が保険医療機関の場合、特定健診・特定保健指導機関の医療機関コードの OID「1.2.392.200119.6.102.」の末尾に「[1]＋医療機関コード（10 桁）」を指定する。医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとする。
-例：医療機関コード「1312345670」の場合「1.2.392.200119.6.102.11312345670」
+医療機関固有の患者ID（カルテNo）を表現する場合、system には、患者IDの発行者である医療機関を識別するuriを指定する。  
+医療機関を識別するために使用するOID について、もし適切なOID が存在しない場合で、その医療施設が保険医療機関の場合、特定健診・特定保健指導機関のルールに従い以下のルールで設定してもよい。  
+医療施設が固有のOID を持っている場合は、そのOID を指定する。医療施設が保険医療機関の場合、特定健診・特定保健指導機関の医療機関コードの OID「1.2.392.200119.6.102.」の末尾に「[1]＋医療機関コード（10 桁）」を指定する。医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとする。  
+例：医療機関コード「1312345670」の場合「1.2.392.200119.6.102.11312345670」  
 Patient.identifier.system は、uri 型のため、実際にインスタンスに設定される値は、上記の例であれば urn:oid:1.2.392.200119.6.102.11312345670 とする。</t>
   </si>
   <si>
@@ -723,7 +720,7 @@
     <t>Patient.identifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
+    <t>The value that is unique 【詳細参照】</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -758,8 +755,8 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").  
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).
 IDが使われていた/使われている期間。</t>
   </si>
   <si>
@@ -811,18 +808,18 @@
     <t>Whether this patient record is in active use. 
 Many systems use this property to mark as non-current patients, such as those that have not been seen for a period of time based on an organization's business rules.
 It is often used to filter patient lists to exclude inactive patients
-Deceased patients may also be marked as inactive for the same reasons, but may be active for some time after death.
-この患者記録がアクティブに使用されているかどうか。多くのシステムは、このプロパティを使用して、組織のビジネスルールに基づいて一定期間見られなかった患者など、非現在の患者としてマークする。
-非アクティブな患者を除外するために患者リストをフィルタリングするためによく使用される。
+Deceased patients may also be marked as inactive for the same reasons, but may be active for some time after death.  
+この患者記録がアクティブに使用されているかどうか。多くのシステムは、このプロパティを使用して、組織のビジネスルールに基づいて一定期間見られなかった患者など、非現在の患者としてマークする。  
+非アクティブな患者を除外するために患者リストをフィルタリングするためによく使用される。  
 死亡した患者は、同じ理由で不活性とマークされる場合があるが、死後しばらくは活性である場合がある。</t>
   </si>
   <si>
-    <t>If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient.
-この患者の記録が有効かどうか
+    <t>If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient.  
+この患者の記録が有効かどうか  
 誤って患者を登録して削除したい場合などにfalseにする</t>
   </si>
   <si>
-    <t>Need to be able to mark a patient record as not to be used because it was created in error.
+    <t>Need to be able to mark a patient record as not to be used because it was created in error.  
 患者レコードが誤って作成された場合のため、使用されないレコードとしてマークできる必要がある。</t>
   </si>
   <si>
@@ -849,14 +846,14 @@
 個人に関連付けられた名前。</t>
   </si>
   <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.
-患者は、用途や適用期間が異なる複数の名前を持つ場合がある。動物の場合、名前は人間によって割り当てられて使用され、同じパターンを持つという意味で「HumanName」を使用する。
-FHIRデータ型仕様に従って、以下の内容を採用する。
-・姓名分割できる場合は、名前パート HumanName.familyとHumanName.givenに指定する。
-・ミドルネームがある場合は、given に指定する（givenは繰り返し可能）
-・姓名に分割できない場合は、HumanName.text にフルネームを指定する。
-・各名前パートとtext は、両方存在してもよい。
-・漢字氏名、カナ氏名の区別は、iso21090-EN-representation を使用する。</t>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.  
+患者は、用途や適用期間が異なる複数の名前を持つ場合がある。動物の場合、名前は人間によって割り当てられて使用され、同じパターンを持つという意味で「HumanName」を使用する。  
+FHIRデータ型仕様に従って、以下の内容を採用する。
+- 姓名分割できる場合は、名前パート HumanName.familyとHumanName.givenに指定する
+- ミドルネームがある場合は、given に指定する（givenは繰り返し可能）  
+- 姓名に分割できない場合は、HumanName.text にフルネームを指定する
+- 各名前パートとtext は、両方存在してもよい
+- 漢字氏名、カナ氏名の区別は、iso21090-EN-representation を使用する</t>
   </si>
   <si>
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.
@@ -909,21 +906,23 @@
     <t>Patient.telecom.system</t>
   </si>
   <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
+    <t>phone | fax | email | pager | url | sms | other 【詳細参照】</t>
   </si>
   <si>
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-患者の連絡先の種別をValueSet(ContactPointSystem)より選択する。
- phone : 電話 
- fax :  Fax 
- email : 電子メール 
- pager : ポケットベル 
- url : 電話、ファックス、ポケットベル、または電子メールアドレスではなく、URLとして表される連絡先。これは、Webサイト、ブログ、Skype、Twitter、Facebookなどのさまざまな機関または個人の連絡先を対象としている。電子メールアドレスには使用しないこと。
- sms : SMSメッセージの送信に使用できる連絡先（携帯電話、一部の固定電話など）
- other : 電話、Fax、ポケットベル、または電子メールアドレスではなく、URLとして表現できない連絡先。例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないこと。</t>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size  
+患者の連絡先の種別をValueSet(ContactPointSystem)より選択する。  
+- phone : 電話
+- fax : Fax 
+- email : 電子メール
+- pager : ポケットベル
+- url : 電話、ファックス、ポケットベル、または電子メールアドレスではなく、URLとして表される連絡先  
+これはWebサイト、ブログ、Skype、Twitter、Facebookなどのさまざまな機関または個人の連絡先を対象としている。電子メールアドレスには使用しないこと。
+- sms : SMSメッセージの送信に使用できる連絡先（携帯電話、一部の固定電話など）  
+- other : 電話、Fax、ポケットベル、または電子メールアドレスではなく、URLとして表現できない連絡先  
+例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないこと。</t>
   </si>
   <si>
     <t>Telecommunications form for contact point.</t>
@@ -973,19 +972,19 @@
     <t>Patient.telecom.use</t>
   </si>
   <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+    <t>home | work | temp | old | mobile - purpose of this contact point 【詳細参照】</t>
   </si>
   <si>
     <t>Identifies the purpose for the contact point.</t>
   </si>
   <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.
-患者の連絡先の種別をValueSet(ContactPointUse)より選択する。
-home 自宅
-work 職場
-temp 一時的
-old 以前の
-mobile モバイル機器</t>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.  
+患者の連絡先の種別をValueSet(ContactPointUse)より選択する。  
+- home : 自宅
+- work : 職場
+- temp : 一時的
+- old : 以前の
+- mobile : モバイル機器</t>
   </si>
   <si>
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
@@ -1036,7 +1035,7 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).  
 連絡先が使用されていた/されている期間</t>
   </si>
   <si>
@@ -1096,9 +1095,9 @@
 個人の生年月日</t>
   </si>
   <si>
-    <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).
-実際の生年月日が不明な場合は、少なくとも推定年を推測として提供する必要があり、時間が必要な場合（出産/乳児ケアシステムなど）に使用できる標準の拡張extension「patient-birthTime」がある。
-患者の生年月日をYYYY-MM-DD形式で入れる
+    <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).  
+実際の生年月日が不明な場合は、少なくとも推定年を推測として提供する必要があり、時間が必要な場合（出産/乳児ケアシステムなど）に使用できる標準の拡張extension「patient-birthTime」がある。  
+患者の生年月日をYYYY-MM-DD形式で入れる。  
 例：1945-08-23</t>
   </si>
   <si>
@@ -1131,12 +1130,12 @@
 個人が死亡しているかどうかを示す。</t>
   </si>
   <si>
-    <t>If there's no value in the instance, it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.
-値がない場合は、個人が死亡したかどうかについてのステートメントがないことを意味し、ほとんどのシステムは、値がないことを人が生きていることの兆候として解釈する。
-患者が死亡しているかどうかを示す
-deceasedBoolean　または　deceasedDateTime　のどちらかに値が入る
-deceasedBoolean : true(死亡) / false(生存)
-deceasedDateTime : 患者の死亡日時</t>
+    <t>If there's no value in the instance, it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.  
+値がない場合は、個人が死亡したかどうかについてのステートメントがないことを意味し、ほとんどのシステムは、値がないことを人が生きていることの兆候として解釈する。  
+患者が死亡しているかどうかを示す  
+deceasedBooleanまたはdeceasedDateTimeのどちらかに値が入る  
+- deceasedBoolean : true(死亡) / false(生存)  
+- deceasedDateTime : 患者の死亡日時</t>
   </si>
   <si>
     <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
@@ -1155,7 +1154,7 @@
 </t>
   </si>
   <si>
-    <t>An address for the individual　個人の住所</t>
+    <t>An address for the individual　個人の住所 【詳細参照】</t>
   </si>
   <si>
     <t>An address for the individual.
@@ -1164,10 +1163,10 @@
   <si>
     <t>Patient may have multiple addresses with different uses or applicable periods.
 患者は、異なる用途または適用可能な期間で複数の住所を持っている可能性がある。
-【JP Core仕様】FHIRデータ型仕様に従って、以下の案とした。
-・住所が構造化されている場合、住所パート Address.country、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する。
-・住所が構造化されていない場合は、Address.text に記述する。
-・各住所パートとtext は、両方存在してもよい。
+【JP Core仕様】FHIRデータ型仕様に従って、以下の案とした。  
+- 住所が構造化されている場合、住所パート Address.country、Address.postalcode、Address.state、Address.city、Address.line に分割して記載する
+- 住所が構造化されていない場合は、Address.text に記述する
+- 各住所パートとtext は、両方存在してもよい
 ※診療文書構造化記述規約等では、streetAddressLine (FHIRではlineに対応) に指定するとなっていた。</t>
   </si>
   <si>
@@ -1192,7 +1191,7 @@
     <t>Patient.address.use</t>
   </si>
   <si>
-    <t>home | work | temp | old | billing - purpose of this address　住所の用途</t>
+    <t>home | work | temp | old | billing - purpose of this address　住所の用途 【詳細参照】</t>
   </si>
   <si>
     <t>The purpose of this address.
@@ -1200,12 +1199,12 @@
   </si>
   <si>
     <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.
-住所の用途をValueSet(AddressUse)より選択する。
-home   自宅
-work   職場
-temp   一時的
-old   以前の
-billing   請求書、インボイス、領収書などの送付用</t>
+住所の用途をValueSet(AddressUse)より選択する。  
+- home : 自宅
+- work : 職場
+- temp : 一時的
+- old : 以前の
+- billing : 請求書、インボイス、領収書などの送付用</t>
   </si>
   <si>
     <t>Allows an appropriate address to be chosen from a list of many.</t>
@@ -1229,18 +1228,18 @@
     <t>Patient.address.type</t>
   </si>
   <si>
-    <t>postal | physical | both</t>
+    <t>postal | physical | both 【詳細参照】</t>
   </si>
   <si>
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.
 住所（訪問できる住所）と郵送先住所（私書箱や気付住所など）を区別する。ほとんどのアドレスは両方。</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).
-住所の種類をValueSet(AddressType)より選択する。
-postal　　　郵送先 - 私書箱、気付の住所
-physical　　訪れることのできる物理的な住所。
-both　　　　postalとphysicalの両方</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).  
+住所の種類をValueSet(AddressType)より選択する。  
+- postal : 郵送先 - 私書箱、気付の住所
+- physical : 訪れることのできる物理的な住所
+- both : postalとphysicalの両方</t>
   </si>
   <si>
     <t>both</t>
@@ -1261,19 +1260,19 @@
     <t>Patient.address.text</t>
   </si>
   <si>
-    <t>Text representation of the address　住所のテキスト表現</t>
-  </si>
-  <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.
-表示するアドレス全体を指定する
+    <t>Text representation of the address　住所のテキスト表現 【詳細参照】</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.  
+表示するアドレス全体を指定する  
 例：郵便ラベル。これは、特定の部品の代わりに、または特定の部品と同様に提供される場合がある。</t>
   </si>
   <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.
-テキスト表現とパーツの両方を提供できる。アドレスを更新するアプリケーションは、テキストとパーツの両方が存在する場合、パーツにないコンテンツはテキストに含まれないようにする必要がある。
-住所を(都道府県や市町村などに)分離して管理していない場合は、textに入れる。
-住所を(都道府県や市町村などに)分離して管理している場合でも、まとめてtextに入れること。
-郵便番号は含めない。
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.  
+テキスト表現とパーツの両方を提供できる。アドレスを更新するアプリケーションは、テキストとパーツの両方が存在する場合、パーツにないコンテンツはテキストに含まれないようにする必要がある。  
+- 住所を(都道府県や市町村などに)分離して管理していない場合は、textに入れる。  
+- 住所を(都道府県や市町村などに)分離して管理している場合でも、まとめてtextに入れること。  
+- 郵便番号は含めない。  
 例：東京都文京区本郷7-3-1</t>
   </si>
   <si>
@@ -1295,7 +1294,7 @@
     <t>Patient.address.line</t>
   </si>
   <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.ストリート名や番地など</t>
+    <t>Street name, number, direction &amp; P.O. Box etc.ストリート名や番地など 【詳細参照】</t>
   </si>
   <si>
     <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.
@@ -1303,12 +1302,12 @@
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-１MBを超えないこと。
-【JP Core仕様】state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。
-英数字は半角でも全角でもよい。文字列の前後および途中に空白文字を含めないこと。
-繰り返し要素が許されているので、区切りを表現したい場合には、複数要素に分けて格納してもよい。
-例：本郷7-3-1
-例：大字石神９７６
+１MBを超えないこと。  
+【JP Core仕様】state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。  
+英数字は半角でも全角でもよい。文字列の前後および途中に空白文字を含めないこと。  
+繰り返し要素が許されているので、区切りを表現したい場合には、複数要素に分けて格納してもよい。  
+例：本郷7-3-1  
+例：大字石神９７６  
 例：藤崎町大字藤崎字西村1-2 春山荘201号室</t>
   </si>
   <si>
@@ -1331,7 +1330,7 @@
 </t>
   </si>
   <si>
-    <t>Name of city, town etc.　市区町村名</t>
+    <t>Name of city, town etc.　市区町村名 【詳細参照】</t>
   </si>
   <si>
     <t>The name of the city, town, suburb, village or other community or delivery center.
@@ -1339,9 +1338,8 @@
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-１MBを超えないこと。
-【JP Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。
-例：文京区</t>
+１MBを超えないこと。  
+【JP Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。 例：文京区</t>
   </si>
   <si>
     <t>Erewhon</t>
@@ -1363,7 +1361,7 @@
 </t>
   </si>
   <si>
-    <t>District name (aka county)</t>
+    <t>District name (aka county) 【詳細参照】</t>
   </si>
   <si>
     <t>The name of the administrative area (county).</t>
@@ -1392,7 +1390,7 @@
 Territory</t>
   </si>
   <si>
-    <t>Sub-unit of country (abbreviations ok)　国の次の地区単位</t>
+    <t>Sub-unit of country (abbreviations ok)　国の次の地区単位 【詳細参照】</t>
   </si>
   <si>
     <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).
@@ -1400,9 +1398,8 @@
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-１MBを超えないこと。
-都道府県名。「都」「道」「府」「県」のそれぞれの文字を含める。
-例：東京都</t>
+１MBを超えないこと。  
+都道府県名。「都」「道」「府」「県」のそれぞれの文字を含める。 例：東京都</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -1421,16 +1418,15 @@
 </t>
   </si>
   <si>
-    <t>Postal code for area</t>
+    <t>Postal code for area 【詳細参照】</t>
   </si>
   <si>
     <t>A postal code designating a region defined by the postal service.</t>
   </si>
   <si>
     <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-１MBを超えないこと。
-郵便番号。日本の郵便番号の場合には3桁数字とハイフン1文字と4桁数字からなる半角８文字、または最初の3桁だけの3文字のいずれかとする。
-例：113-8655</t>
+１MBを超えないこと。  
+郵便番号。日本の郵便番号の場合には3桁数字とハイフン1文字と4桁数字からなる半角８文字、または最初の3桁だけの3文字のいずれかとする。 例：113-8655</t>
   </si>
   <si>
     <t>9132</t>
@@ -1455,10 +1451,10 @@
 国-一般的に理解されている、または一般的に受け入れられている国の国名かコード。</t>
   </si>
   <si>
-    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.
-ISO 3166 3文字コードは、人間が読める国名の代わりに使用する。
-ISO 3166の2文字または3文字のコード
-日本であれば、jp　または　jpn</t>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.  
+ISO 3166 3文字コードは、人間が読める国名の代わりに使用する。  
+ISO 3166の2文字または3文字のコード  
+日本であれば、jpまたはjpn</t>
   </si>
   <si>
     <t>Address.country</t>
@@ -1481,9 +1477,9 @@
   </si>
   <si>
     <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](datatypes.html#Duration).
-住所が使用されていた/されている期間。
-期間は時間の範囲を指定する。使用状況はその期間全体に適用されるか、範囲から1つの値が適用される。
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).  
+住所が使用されていた/されている期間。  
+期間は時間の範囲を指定する。使用状況はその期間全体に適用されるか、範囲から1つの値が適用される。  
 期間は、時間間隔（経過時間の測定値）には使用されない。</t>
   </si>
   <si>
@@ -1505,26 +1501,26 @@
     <t>Patient.maritalStatus</t>
   </si>
   <si>
-    <t>Marital (civil) status of a patient　患者の婚姻（市民）状態</t>
+    <t>Marital (civil) status of a patient　患者の婚姻（市民）状態 【詳細参照】</t>
   </si>
   <si>
     <t>This field contains a patient's most recent marital (civil) status.
 このフィールドは患者の最新の婚姻（市民）状態が含む。</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-患者の婚姻関係をValueSet(Marital Status Codes)より選択する。
-A 婚姻取消・無効
-D 離婚
-I 暫定法令
-L 法的別居中
-M 既婚
-P 一夫多妻制
-S 生涯独身・非婚
-T 同棲
-U 未婚
-W 未亡人
-UNK 不明</t>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.  
+患者の婚姻関係をValueSet(Marital Status Codes)より選択する。  
+- A : 婚姻取消・無効
+- D : 離婚
+- I : 暫定法令
+- L : 法的別居中
+- M : 既婚
+- P : 一夫多妻制
+- S : 生涯独身・非婚
+- T : 同棲
+- U : 未婚
+- W : 未亡人
+- UNK : 不明</t>
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
@@ -1552,19 +1548,19 @@
 integer</t>
   </si>
   <si>
-    <t>Whether patient is part of a multiple birth　患者が多胎出産の一人かどうか。</t>
+    <t>Whether patient is part of a multiple birth　患者が多胎出産の一人かどうか</t>
   </si>
   <si>
     <t>Indicates whether the patient is part of a multiple (boolean) or indicates the actual birth order (integer).
 患者が多胎児の一人であるか（boolean）、実際の出生順位（integer）であるかを示す。</t>
   </si>
   <si>
-    <t>Where the valueInteger is provided, the number is the birth number in the sequence. E.g. The middle birth in triplets would be valueInteger=2 and the third born would have valueInteger=3 If a boolean value was provided for this triplets example, then all 3 patient records would have valueBoolean=true (the ordering is not indicated).
-multipleBirthBoolean　または　multipleBirthInteger　のどちらかに値が入る
-multipleBirthBoolean : 多胎出産時かどうか。
-３つ子の例にbooleanが指定された場合、3つの患者レコードすべてがvalueBoolean = trueになる（順序は示されない）
-multipleBirthInteger : 多胎出産時の出生順位。
-たとえば、３つ子の２番目の生まれはvalueInteger = 2で、3番目の生まれはvalueInteger = 3になる。</t>
+    <t>Where the valueInteger is provided, the number is the birth number in the sequence. E.g. The middle birth in triplets would be valueInteger=2 and the third born would have valueInteger=3 If a boolean value was provided for this triplets example, then all 3 patient records would have valueBoolean=true (the ordering is not indicated).  
+multipleBirthBooleanまたはmultipleBirthIntegerのどちらかに値が入る  
+- multipleBirthBoolean : 多胎出産時かどうか  
+３つ子の例にbooleanが指定された場合、3つの患者レコードすべてがvalueBoolean = trueになる（順序は示されない）  
+- multipleBirthInteger : 多胎出産時の出生順位  
+たとえば、３つ子の２番目の生まれはvalueInteger = 2で、3番目の生まれはvalueInteger = 3になる</t>
   </si>
   <si>
     <t>For disambiguation of multiple-birth children, especially relevant where the care provider doesn't meet the patient, such as labs.
@@ -1591,14 +1587,14 @@
 患者の画像。</t>
   </si>
   <si>
-    <t>Guidelines:
-* Use id photos, not clinical photos.
-* Limit dimensions to thumbnail.
-* Keep byte count low to ease resource updates
-ガイドライン：
-臨床写真ではなく、身分証明写真を使用すること。
-寸法をサムネイルに制限する。
-リソースの更新を容易にするため、バイト数を少なくすること。</t>
+    <t>Guidelines:  
+- Use id photos, not clinical photos.  
+- Limit dimensions to thumbnail.  
+- Keep byte count low to ease resource updates
+ガイドライン：  
+- 臨床写真ではなく、身分証明写真を使用すること
+- 寸法をサムネイルに制限する  
+- リソースの更新を容易にするため、バイト数を少なくすること</t>
   </si>
   <si>
     <t>Many EHR systems have the capability to capture an image of the patient. Fits with newer social media usage too.
@@ -1618,7 +1614,7 @@
 </t>
   </si>
   <si>
-    <t>A contact party (e.g. guardian, partner, friend) for the patient　患者の連絡先者（例：保護者、パートナー、友人）。</t>
+    <t>A contact party (e.g. guardian, partner, friend) for the patient　患者の連絡先者（例：保護者、パートナー、友人）</t>
   </si>
   <si>
     <t>A contact party (e.g. guardian, partner, friend) for the patient.
@@ -1666,22 +1662,22 @@
     <t>Patient.contact.relationship</t>
   </si>
   <si>
-    <t>The kind of relationship</t>
+    <t>The kind of relationship 【詳細参照】</t>
   </si>
   <si>
     <t>The nature of the relationship between the patient and the contact person.
 患者と連絡先の関係性。</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-患者との関係性をValueSet(PatientContactRelationship)より選択する。
-C 緊急連絡先
-E 雇用者
-F 連邦政府機関
-I 保険会社
-N 近親者
-S 州政府機関
-U 不明</t>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.  
+患者との関係性をValueSet(PatientContactRelationship)より選択する。  
+- C : 緊急連絡先
+- E : 雇用者
+- F : 連邦政府機関
+- I : 保険会社
+- N : 近親者
+- S : 州政府機関
+- U : 不明</t>
   </si>
   <si>
     <t>Used to determine which contact person is the most relevant to approach, depending on circumstances.
@@ -1826,11 +1822,11 @@
 彼または彼女の健康について患者と会話する際に使用する言語。</t>
   </si>
   <si>
-    <t>If no language is specified, this *implies* that the default local language is spoken.  If you need to convey proficiency for multiple modes, then you need multiple Patient.Communication associations.   For animals, language is not a relevant field, and should be absent from the instance. If the Patient does not speak the default local language, then the Interpreter Required Standard can be used to explicitly declare that an interpreter is required.
-言語が指定されていない場合、デフォルトのローカル言語が話されていることを意味する。 複数のモードの習熟度を伝える必要がある場合は、複数のPatient.Communicationアソシエーションが必要である。 動物の場合、言語は関連するフィールドではないため、インスタンスから除外する必要がある。 患者がデフォルトの現地言語を話さない場合、通訳者が必要であることを明示的に宣言するために、通訳者必須基準を使用できる。</t>
-  </si>
-  <si>
-    <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.
+    <t>If no language is specified, this *implies* that the default local language is spoken.  If you need to convey proficiency for multiple modes, then you need multiple Patient.Communication associations.   For animals, language is not a relevant field, and should be absent from the instance. If the Patient does not speak the default local language, then the Interpreter Required Standard can be used to explicitly declare that an interpreter is required.  
+言語が指定されていない場合、デフォルトのローカル言語が話されていることを意味する。複数のモードの習熟度を伝える必要がある場合は、複数のPatient.Communicationアソシエーションが必要である。動物の場合、言語は関連するフィールドではないため、インスタンスから除外する必要がある。患者がデフォルトの現地言語を話さない場合、通訳者が必要であることを明示的に宣言するために、通訳者必須基準を使用できる。</t>
+  </si>
+  <si>
+    <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.  
 患者が現地の言語を話さない場合、通訳が必要になる場合があるため、話せる言語と習熟度は、患者と関心のある他の人の両方にとって注意すべき重要な事項である。</t>
   </si>
   <si>
@@ -1852,20 +1848,20 @@
     <t>Patient.communication.language</t>
   </si>
   <si>
-    <t>The language which can be used to communicate with the patient about his or her health</t>
-  </si>
-  <si>
-    <t>The ISO-639-1 alpha 2 code in lower case for the language, optionally followed by a hyphen and the ISO-3166-1 alpha 2 code for the region in upper case; e.g. "en" for English, or "en-US" for American English versus "en-EN" for England English.
-ISO-639-1 alpha 2コード小文字で言語を、また、オプションとしてハイフンとISO-3166-1 alpha 2コード大文字を続けて地域を表す。たとえば、英語の場合は「en」、アメリカ英語の場合は「en-US」、イギリス英語の場合は「en-EN」である。</t>
+    <t>The language which can be used to communicate with the patient about his or her health 【詳細参照】</t>
+  </si>
+  <si>
+    <t>The ISO-639-1 alpha 2 code in lower case for the language, optionally followed by a hyphen and the ISO-3166-1 alpha 2 code for the region in upper case; e.g. "en" for English, or "en-US" for American English versus "en-EN" for England English.  
+ISO-639-1 alpha 2コード小文字で言語を、またオプションとしてハイフンとISO-3166-1 alpha 2コード大文字を続けて地域を表す。たとえば、英語の場合は「en」、アメリカ英語の場合は「en-US」、イギリス英語の場合は「en-EN」である。</t>
   </si>
   <si>
     <t>The structure aa-BB with this exact casing is one the most widely used notations for locale. However not all systems actually code this but instead have it as free text. Hence CodeableConcept instead of code as the data type.
-患者とコミュニケーションするときに使用できる言語をValueSet(CommonLanguages)より選択する。
-de ドイツ語
-en 英語
-fr フランス語
-ja 日本語
-ko 韓国語
+患者とコミュニケーションするときに使用できる言語をValueSet(CommonLanguages)より選択する。
+- de : ドイツ語
+- en : 英語
+- fr : フランス語
+- ja : 日本語
+- ko : 韓国語  
 など</t>
   </si>
   <si>
@@ -1921,18 +1917,17 @@
 </t>
   </si>
   <si>
-    <t>Patient's nominated primary care provider　患者が指名するケア提供者。</t>
+    <t>Patient's nominated primary care provider　患者が指名するケア提供者</t>
   </si>
   <si>
     <t>Patient's nominated care provider.
-患者が指名するケア提供者。</t>
+患者が指名するケア提供者</t>
   </si>
   <si>
     <t>This may be the primary care provider (in a GP context), or it may be a patient nominated care manager in a community/disability setting, or even organization that will provide people to perform the care provider roles.  It is not to be used to record Care Teams, these should be in a CareTeam resource that may be linked to the CarePlan or EpisodeOfCare resources.
-Multiple GPs may be recorded against the patient for various reasons, such as a student that has his home GP listed along with the GP at university during the school semesters, or a "fly-in/fly-out" worker that has the onsite GP also included with his home GP to remain aware of medical issues.
-Jurisdictions may decide that they can profile this down to 1 if desired, or 1 per type.
-----以下の翻訳は検討中の内容を含む----
-これはプライマリケア提供者(GPを含む)である場合もあれば、コミュニティ/障害を持つ患者指定のケアマネージャーである場合もある。ケアチームの記録には使用されない。これらは、ケアプランまたはEpisodeOfCareリソースにリンクされるCareTeamリソースに含まれている必要がある。複数のGPは、学期中の大学GPと共にリストされた家庭GPなどの学生や、「フライイン/フライアウト」労働者など、さまざまな理由で患者に対して記録される場合がある。また、医学的問題を認識し続けるために家庭GPに含まれる。
+Multiple GPs may be recorded against the patient for various reasons, such as a student that has his home GP listed along with the GP at university during the school semesters, or a "fly-in/fly-out" worker that has the onsite GP also included with his home GP to remain aware of medical issues.  
+Jurisdictions may decide that they can profile this down to 1 if desired, or 1 per type.  
+これはプライマリケア提供者(GPを含む)である場合もあれば、コミュニティ/障害を持つ患者指定のケアマネージャーである場合もある。ケアチームの記録には使用されない。これらはケアプランまたはEpisodeOfCareリソースにリンクされるCareTeamリソースに含まれている必要がある。複数のGPは、学期中の大学GPと共にリストされた家庭GPなどの学生や、「フライイン/フライアウト」労働者など、さまざまな理由で患者に対して記録される場合がある。また、医学的問題を認識し続けるために家庭GPに含まれる。  
 管轄区域は、必要に応じてこれを1、またはタイプごとに1にプロファイルできると決定する場合がある。</t>
   </si>
   <si>
@@ -1979,10 +1974,10 @@
   <si>
     <t>There are multiple use cases:   
 * Duplicate patient records due to the clerical errors associated with the difficulties of identifying humans consistently, and 
-* Distribution of patient information across multiple servers
-複数のユースケースがある。
-・事務的なエラーのため、一貫して人間を特定することが困難であり患者の記録が重複している。
-・複数のサーバーにわたり患者情報が配布されている。</t>
+* Distribution of patient information across multiple servers
+複数のユースケースがある。  
+- 事務的なエラーのため一貫して人間を特定することが困難であり患者の記録が重複している
+- 複数のサーバにわたり患者情報が配布されている</t>
   </si>
   <si>
     <t>outboundLink</t>
@@ -2021,19 +2016,19 @@
     <t>Patient.link.type</t>
   </si>
   <si>
-    <t>replaced-by | replaces | refer | seealso</t>
+    <t>replaced-by | replaces | refer | seealso 【詳細参照】</t>
   </si>
   <si>
     <t>The type of link between this patient resource and another patient resource.
 この患者リソースと別の患者リソース間のリンクのタイプ。</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-この患者リソースと別の患者リソース間のリンクのタイプをValueSet(LinkType)より選択する。
-replaced-by　このリンクを含む患者リソースは使用しないこと。
-replaces　　　このリンクを含む患者リソースは、現在アクティブな患者レコードである。
-refer　　　　このリンクを含む患者リソースは使用中であり、有効であるが、患者に関する主な情報源とは見なされていない。
-seealso　　このリンクを含む患者リソースは使用中で有効であるが、同じ人物に関するデータが含まれていることがわかっている別の患者リソースを指す。</t>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size  
+この患者リソースと別の患者リソース間のリンクのタイプをValueSet(LinkType)より選択する。
+- replaced-by : このリンクを含む患者リソースは使用しないこと
+- replaces : このリンクを含む患者リソースは、現在アクティブな患者レコードである
+- refer : このリンクを含む患者リソースは使用中であり、有効であるが、患者に関する主な情報源とは見なされていない
+- seealso : このリンクを含む患者リソースは使用中で有効であるが、同じ人物に関するデータが含まれていることがわかっている別の患者リソースを指す</t>
   </si>
   <si>
     <t>The type of link between this patient resource and another patient resource.</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
@@ -553,8 +553,10 @@
   <si>
     <t>IDの名前空間を表す Patient.identifier.system と ID値そのものを表す Patient.identifier.value の組み合わせとして表現する。  
 Patient.identifier.system には、urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号を使用する。  
-医療機関識別OID番号は患者IDの発行者である医療機関の識別するものである。保険医療機関の場合、都道府県番号２桁から始まる10桁の医療機関コードまたは、特定健診・特定保健指導機関の医療機関コード10桁の先頭に１をつけた11桁とする。医療機関コードの詳細については[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード)を参照すること。  
-例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」  
+医療機関識別OID番号は患者IDの発行者である機関の医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細は[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。  
+```
+例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」
+```
 なお、urn:oid:1.2.392.100495.20.3.51の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において医療機関等の患者IDとして割り当てられたOIDのURL型である。地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）をsystemに使用することができる。</t>
   </si>
   <si>
@@ -694,12 +696,12 @@
   </si>
   <si>
     <t>Identifier.system is always case sensitive.  
-IDの名前空間を表す。
-医療機関固有の患者ID（カルテNo）を表現する場合、system には、患者IDの発行者である医療機関を識別するuriを指定する。  
-医療機関を識別するために使用するOID について、もし適切なOID が存在しない場合で、その医療施設が保険医療機関の場合、特定健診・特定保健指導機関のルールに従い以下のルールで設定してもよい。  
-医療施設が固有のOID を持っている場合は、そのOID を指定する。医療施設が保険医療機関の場合、特定健診・特定保健指導機関の医療機関コードの OID「1.2.392.200119.6.102.」の末尾に「[1]＋医療機関コード（10 桁）」を指定する。医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとする。  
-例：医療機関コード「1312345670」の場合「1.2.392.200119.6.102.11312345670」  
-Patient.identifier.system は、uri 型のため、実際にインスタンスに設定される値は、上記の例であれば urn:oid:1.2.392.200119.6.102.11312345670 とする。</t>
+Patient.identifier.system には、urn:oid:1.2.392.100495.20.3.51.医療機関識別OID番号を使用する。  
+医療機関識別OID番号は患者IDの発行者である機関の医療機関コード（１０桁）の先頭に１をつけた11桁とする。医療機関コード（１０桁）の詳細は[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。  
+```
+例：医療機関コード「1312345670」の場合「urn:oid:1.2.392.100495.20.3.51.11312345670」
+```
+なお、urn:oid:1.2.392.100495.20.3.51の部分は、「[処方情報 HL7FHIR 記述仕様](https://std.jpfhir.jp/stddoc/ePrescriptionDataFHIR_v1x.pdf)」表19 識別子名前空間一覧において医療機関等の患者IDとして割り当てられたOIDのURL型である。地域医療連携ネットワークの地域患者IDを指定する場合も同様に、地域患者IDを識別する名前空間（IHE ITI PIX等で使用されるOID等）をsystemに使用することができる。</t>
   </si>
   <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -264,10 +267,6 @@
   <si>
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.
 ケアまたはその他の健康関連サービスを受けている個人または動物に関する人口統計およびその他の管理情報。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -2288,55 +2287,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2399,221 +2398,221 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>84</v>
@@ -2622,13 +2621,13 @@
         <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -2637,20 +2636,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>88</v>
@@ -2669,80 +2668,80 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -2751,20 +2750,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>88</v>
@@ -2781,80 +2780,80 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -2863,17 +2862,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>88</v>
@@ -2895,80 +2894,80 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -2977,23 +2976,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>107</v>
@@ -3009,26 +3008,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>111</v>
@@ -3040,49 +3039,49 @@
         <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -3095,19 +3094,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>117</v>
@@ -3123,62 +3122,62 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>99</v>
@@ -3187,16 +3186,16 @@
         <v>122</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -3209,19 +3208,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>125</v>
@@ -3237,80 +3236,80 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
@@ -3319,23 +3318,23 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>132</v>
@@ -3349,45 +3348,45 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>136</v>
@@ -3396,31 +3395,31 @@
         <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -3431,23 +3430,23 @@
         <v>139</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>140</v>
@@ -3463,59 +3462,59 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>144</v>
@@ -3524,19 +3523,19 @@
         <v>138</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -3547,23 +3546,23 @@
         <v>145</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>146</v>
@@ -3579,59 +3578,59 @@
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>144</v>
@@ -3640,19 +3639,19 @@
         <v>138</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -3663,23 +3662,23 @@
         <v>150</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>151</v>
@@ -3695,59 +3694,59 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>144</v>
@@ -3756,19 +3755,19 @@
         <v>138</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -3781,19 +3780,19 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>132</v>
@@ -3811,62 +3810,62 @@
         <v>160</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>138</v>
@@ -3875,16 +3874,16 @@
         <v>130</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
@@ -3893,20 +3892,20 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>87</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>88</v>
@@ -3927,62 +3926,62 @@
         <v>167</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>162</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>99</v>
@@ -4000,7 +3999,7 @@
         <v>171</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
@@ -4009,23 +4008,23 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>173</v>
@@ -4039,80 +4038,80 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -4125,19 +4124,19 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>132</v>
@@ -4153,38 +4152,38 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>135</v>
@@ -4193,7 +4192,7 @@
         <v>181</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>136</v>
@@ -4202,13 +4201,13 @@
         <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>138</v>
@@ -4217,16 +4216,16 @@
         <v>177</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
@@ -4235,17 +4234,17 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>88</v>
@@ -4269,26 +4268,26 @@
         <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>188</v>
@@ -4300,31 +4299,31 @@
         <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>99</v>
@@ -4333,16 +4332,16 @@
         <v>192</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -4351,20 +4350,20 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>88</v>
@@ -4385,26 +4384,26 @@
         <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
         <v>199</v>
@@ -4416,31 +4415,31 @@
         <v>201</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>99</v>
@@ -4449,16 +4448,16 @@
         <v>192</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>203</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -4467,20 +4466,20 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>88</v>
@@ -4501,62 +4500,62 @@
         <v>208</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>209</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>210</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>99</v>
@@ -4565,16 +4564,16 @@
         <v>211</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -4583,7 +4582,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4593,10 +4592,10 @@
         <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>88</v>
@@ -4615,62 +4614,62 @@
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>217</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>218</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>99</v>
@@ -4679,16 +4678,16 @@
         <v>219</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>220</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -4697,20 +4696,20 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>88</v>
@@ -4729,62 +4728,62 @@
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>99</v>
@@ -4793,16 +4792,16 @@
         <v>227</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>228</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -4811,20 +4810,20 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>88</v>
@@ -4843,62 +4842,62 @@
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>234</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>99</v>
@@ -4907,16 +4906,16 @@
         <v>235</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>236</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -4925,17 +4924,17 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>88</v>
@@ -4959,64 +4958,64 @@
         <v>242</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>243</v>
       </c>
       <c r="Q23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>237</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>99</v>
@@ -5031,10 +5030,10 @@
         <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
@@ -5043,23 +5042,23 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>247</v>
@@ -5077,59 +5076,59 @@
         <v>251</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>246</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>144</v>
@@ -5141,16 +5140,16 @@
         <v>252</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>253</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
@@ -5159,20 +5158,20 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>88</v>
@@ -5193,62 +5192,62 @@
         <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>254</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>99</v>
@@ -5260,13 +5259,13 @@
         <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>262</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
@@ -5275,23 +5274,23 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>173</v>
@@ -5305,80 +5304,80 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -5391,19 +5390,19 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>132</v>
@@ -5419,38 +5418,38 @@
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>135</v>
@@ -5459,7 +5458,7 @@
         <v>181</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>136</v>
@@ -5468,13 +5467,13 @@
         <v>182</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>138</v>
@@ -5483,16 +5482,16 @@
         <v>177</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
@@ -5501,20 +5500,20 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>88</v>
@@ -5533,26 +5532,26 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
         <v>188</v>
@@ -5564,25 +5563,25 @@
         <v>270</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>271</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -5597,16 +5596,16 @@
         <v>273</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>274</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
@@ -5615,20 +5614,20 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>88</v>
@@ -5649,62 +5648,62 @@
         <v>279</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>280</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>99</v>
@@ -5713,16 +5712,16 @@
         <v>281</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
@@ -5731,17 +5730,17 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>88</v>
@@ -5765,26 +5764,26 @@
         <v>287</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
         <v>188</v>
@@ -5796,31 +5795,31 @@
         <v>289</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>290</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>99</v>
@@ -5829,16 +5828,16 @@
         <v>291</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
@@ -5847,20 +5846,20 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>88</v>
@@ -5879,62 +5878,62 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>298</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>99</v>
@@ -5943,16 +5942,16 @@
         <v>177</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
@@ -5961,20 +5960,20 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>88</v>
@@ -5993,62 +5992,62 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>303</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>99</v>
@@ -6057,16 +6056,16 @@
         <v>304</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
@@ -6075,20 +6074,20 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>88</v>
@@ -6109,26 +6108,26 @@
         <v>309</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
         <v>188</v>
@@ -6140,31 +6139,31 @@
         <v>311</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>305</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>99</v>
@@ -6176,13 +6175,13 @@
         <v>313</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>314</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
@@ -6191,20 +6190,20 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>88</v>
@@ -6225,62 +6224,62 @@
         <v>320</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>315</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>99</v>
@@ -6292,7 +6291,7 @@
         <v>322</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>323</v>
@@ -6307,17 +6306,17 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>88</v>
@@ -6341,62 +6340,62 @@
         <v>330</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>325</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>99</v>
@@ -6408,13 +6407,13 @@
         <v>177</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
@@ -6423,20 +6422,20 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>88</v>
@@ -6457,62 +6456,62 @@
         <v>338</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>333</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>99</v>
@@ -6524,13 +6523,13 @@
         <v>340</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
@@ -6539,23 +6538,23 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>173</v>
@@ -6569,80 +6568,80 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
@@ -6655,19 +6654,19 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>132</v>
@@ -6683,38 +6682,38 @@
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>135</v>
@@ -6723,7 +6722,7 @@
         <v>181</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>136</v>
@@ -6732,13 +6731,13 @@
         <v>182</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>138</v>
@@ -6747,16 +6746,16 @@
         <v>177</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
@@ -6765,17 +6764,17 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>88</v>
@@ -6799,26 +6798,26 @@
         <v>348</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>349</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
         <v>188</v>
@@ -6830,31 +6829,31 @@
         <v>351</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>352</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>99</v>
@@ -6863,16 +6862,16 @@
         <v>291</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>353</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
@@ -6881,20 +6880,20 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>88</v>
@@ -6913,26 +6912,26 @@
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S40" t="s" s="2">
         <v>358</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
         <v>188</v>
@@ -6944,31 +6943,31 @@
         <v>360</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>361</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>99</v>
@@ -6977,16 +6976,16 @@
         <v>291</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>362</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
@@ -6995,20 +6994,20 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>88</v>
@@ -7029,62 +7028,62 @@
         <v>367</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>368</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>369</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>99</v>
@@ -7093,16 +7092,16 @@
         <v>370</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>371</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
@@ -7111,20 +7110,20 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>88</v>
@@ -7143,62 +7142,62 @@
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
         <v>376</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>377</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>99</v>
@@ -7207,16 +7206,16 @@
         <v>378</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>379</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
@@ -7229,16 +7228,16 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>88</v>
@@ -7257,62 +7256,62 @@
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>385</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>386</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>99</v>
@@ -7321,16 +7320,16 @@
         <v>387</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
@@ -7343,16 +7342,16 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>88</v>
@@ -7371,62 +7370,62 @@
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>394</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>395</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>99</v>
@@ -7435,16 +7434,16 @@
         <v>396</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>397</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
@@ -7457,16 +7456,16 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>88</v>
@@ -7485,62 +7484,62 @@
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>403</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>99</v>
@@ -7549,16 +7548,16 @@
         <v>404</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>405</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
@@ -7571,16 +7570,16 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>88</v>
@@ -7599,62 +7598,62 @@
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>411</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>412</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>99</v>
@@ -7663,16 +7662,16 @@
         <v>413</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>414</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47">
@@ -7681,20 +7680,20 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>88</v>
@@ -7713,62 +7712,62 @@
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>419</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>99</v>
@@ -7777,16 +7776,16 @@
         <v>420</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>421</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48">
@@ -7795,20 +7794,20 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>88</v>
@@ -7829,62 +7828,62 @@
         <v>426</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>427</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>428</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>99</v>
@@ -7893,16 +7892,16 @@
         <v>304</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>429</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
@@ -7911,23 +7910,23 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>194</v>
@@ -7945,26 +7944,26 @@
         <v>434</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
         <v>199</v>
@@ -7976,31 +7975,31 @@
         <v>436</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>430</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>99</v>
@@ -8012,13 +8011,13 @@
         <v>438</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>439</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
@@ -8027,23 +8026,23 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>441</v>
@@ -8061,62 +8060,62 @@
         <v>445</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>440</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>99</v>
@@ -8128,13 +8127,13 @@
         <v>177</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>447</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
@@ -8143,23 +8142,23 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>449</v>
@@ -8177,62 +8176,62 @@
         <v>453</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>448</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>99</v>
@@ -8244,13 +8243,13 @@
         <v>177</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>455</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
@@ -8259,23 +8258,23 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>457</v>
@@ -8293,62 +8292,62 @@
         <v>461</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>456</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>462</v>
@@ -8360,13 +8359,13 @@
         <v>177</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
@@ -8375,23 +8374,23 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>173</v>
@@ -8405,80 +8404,80 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54">
@@ -8491,19 +8490,19 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>132</v>
@@ -8519,62 +8518,62 @@
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>182</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>138</v>
@@ -8583,16 +8582,16 @@
         <v>177</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
@@ -8605,13 +8604,13 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>88</v>
@@ -8635,62 +8634,62 @@
         <v>160</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>470</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>138</v>
@@ -8699,16 +8698,16 @@
         <v>130</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56">
@@ -8717,23 +8716,23 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>194</v>
@@ -8751,26 +8750,26 @@
         <v>475</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
         <v>199</v>
@@ -8782,31 +8781,31 @@
         <v>477</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>471</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
@@ -8818,13 +8817,13 @@
         <v>177</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>479</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57">
@@ -8833,23 +8832,23 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>481</v>
@@ -8865,62 +8864,62 @@
         <v>484</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>480</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>99</v>
@@ -8932,13 +8931,13 @@
         <v>177</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>486</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
@@ -8947,23 +8946,23 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>255</v>
@@ -8981,62 +8980,62 @@
         <v>491</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>487</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>99</v>
@@ -9048,13 +9047,13 @@
         <v>177</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>492</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
@@ -9063,23 +9062,23 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>334</v>
@@ -9095,62 +9094,62 @@
         <v>496</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>493</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>99</v>
@@ -9162,13 +9161,13 @@
         <v>177</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>497</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
@@ -9177,23 +9176,23 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>107</v>
@@ -9209,26 +9208,26 @@
         <v>500</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W60" t="s" s="2">
         <v>188</v>
@@ -9240,31 +9239,31 @@
         <v>311</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>498</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>99</v>
@@ -9276,13 +9275,13 @@
         <v>177</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>501</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61">
@@ -9291,23 +9290,23 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>230</v>
@@ -9325,56 +9324,56 @@
         <v>506</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>502</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>87</v>
@@ -9392,13 +9391,13 @@
         <v>177</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>509</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
@@ -9407,23 +9406,23 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>222</v>
@@ -9437,62 +9436,62 @@
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
         <v>510</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>99</v>
@@ -9504,13 +9503,13 @@
         <v>177</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
@@ -9519,23 +9518,23 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>457</v>
@@ -9553,62 +9552,62 @@
         <v>518</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
         <v>514</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>99</v>
@@ -9620,13 +9619,13 @@
         <v>520</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64">
@@ -9635,23 +9634,23 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>173</v>
@@ -9665,80 +9664,80 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65">
@@ -9751,19 +9750,19 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>132</v>
@@ -9779,62 +9778,62 @@
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>182</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>138</v>
@@ -9843,16 +9842,16 @@
         <v>177</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66">
@@ -9865,13 +9864,13 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>88</v>
@@ -9895,62 +9894,62 @@
         <v>160</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
         <v>470</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>138</v>
@@ -9959,16 +9958,16 @@
         <v>130</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67">
@@ -9977,7 +9976,7 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9987,13 +9986,13 @@
         <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>194</v>
@@ -10011,26 +10010,26 @@
         <v>528</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
         <v>111</v>
@@ -10042,19 +10041,19 @@
         <v>113</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>524</v>
@@ -10066,7 +10065,7 @@
         <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>99</v>
@@ -10078,13 +10077,13 @@
         <v>530</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>531</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68">
@@ -10093,23 +10092,23 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>238</v>
@@ -10127,62 +10126,62 @@
         <v>536</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
         <v>532</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>99</v>
@@ -10194,13 +10193,13 @@
         <v>538</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>539</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69">
@@ -10213,19 +10212,19 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>542</v>
@@ -10241,62 +10240,62 @@
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
         <v>540</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>99</v>
@@ -10308,13 +10307,13 @@
         <v>177</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>547</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70">
@@ -10323,20 +10322,20 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>88</v>
@@ -10357,62 +10356,62 @@
         <v>552</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
         <v>548</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>99</v>
@@ -10424,13 +10423,13 @@
         <v>553</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71">
@@ -10439,17 +10438,17 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>88</v>
@@ -10473,62 +10472,62 @@
         <v>558</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
         <v>554</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>99</v>
@@ -10540,13 +10539,13 @@
         <v>177</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72">
@@ -10555,23 +10554,23 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>173</v>
@@ -10585,80 +10584,80 @@
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73">
@@ -10671,19 +10670,19 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>132</v>
@@ -10699,62 +10698,62 @@
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
         <v>182</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>138</v>
@@ -10763,16 +10762,16 @@
         <v>177</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74">
@@ -10785,13 +10784,13 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>88</v>
@@ -10815,62 +10814,62 @@
         <v>160</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
         <v>470</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>138</v>
@@ -10879,16 +10878,16 @@
         <v>130</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75">
@@ -10897,7 +10896,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10907,10 +10906,10 @@
         <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>88</v>
@@ -10929,50 +10928,50 @@
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
         <v>563</v>
@@ -10984,7 +10983,7 @@
         <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>99</v>
@@ -10996,13 +10995,13 @@
         <v>177</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>568</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76">
@@ -11011,7 +11010,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11021,10 +11020,10 @@
         <v>87</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>88</v>
@@ -11043,26 +11042,26 @@
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="V76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W76" t="s" s="2">
         <v>188</v>
@@ -11074,19 +11073,19 @@
         <v>574</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
         <v>569</v>
@@ -11098,7 +11097,7 @@
         <v>87</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>99</v>
@@ -11110,13 +11109,13 @@
         <v>177</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
